--- a/LOGS/5ae97e13-e065-4b5d-89a6-437a132fd520/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/5ae97e13-e065-4b5d-89a6-437a132fd520/main_page_service_output/notes_cropped_df.xlsx
@@ -14,23 +14,31 @@
     <sheet name="20__16787f05-ba09-32" sheetId="5" r:id="rId5"/>
     <sheet name="19__99be7f71-bd17-33" sheetId="6" r:id="rId6"/>
     <sheet name="19__16787f05-ba09-32" sheetId="7" r:id="rId7"/>
-    <sheet name="5__9b19380a-880a-366" sheetId="8" r:id="rId8"/>
-    <sheet name="6__f1fe8f9e-8034-3c5" sheetId="9" r:id="rId9"/>
-    <sheet name="7__f1fe8f9e-8034-3c5" sheetId="10" r:id="rId10"/>
-    <sheet name="8__f1fe8f9e-8034-3c5" sheetId="11" r:id="rId11"/>
-    <sheet name="9__f1fe8f9e-8034-3c5" sheetId="12" r:id="rId12"/>
-    <sheet name="10__60ca238e-8895-3b" sheetId="13" r:id="rId13"/>
-    <sheet name="11__60ca238e-8895-3b" sheetId="14" r:id="rId14"/>
-    <sheet name="12__60ca238e-8895-3b" sheetId="15" r:id="rId15"/>
-    <sheet name="13__170bd866-663f-33" sheetId="16" r:id="rId16"/>
-    <sheet name="13__61add208-6a47-33" sheetId="17" r:id="rId17"/>
+    <sheet name="21__16787f05-ba09-32" sheetId="8" r:id="rId8"/>
+    <sheet name="22__11f0b598-bee9-32" sheetId="9" r:id="rId9"/>
+    <sheet name="22__237f1050-8666-37" sheetId="10" r:id="rId10"/>
+    <sheet name="23__ac961699-3fd8-3e" sheetId="11" r:id="rId11"/>
+    <sheet name="24__02a78276-4ff9-37" sheetId="12" r:id="rId12"/>
+    <sheet name="25__8d776587-00df-31" sheetId="13" r:id="rId13"/>
+    <sheet name="25__4423ed03-b93d-39" sheetId="14" r:id="rId14"/>
+    <sheet name="25__bcffcef6-59c4-3e" sheetId="15" r:id="rId15"/>
+    <sheet name="5__9b19380a-880a-366" sheetId="16" r:id="rId16"/>
+    <sheet name="6__f1fe8f9e-8034-3c5" sheetId="17" r:id="rId17"/>
+    <sheet name="7__f1fe8f9e-8034-3c5" sheetId="18" r:id="rId18"/>
+    <sheet name="8__f1fe8f9e-8034-3c5" sheetId="19" r:id="rId19"/>
+    <sheet name="9__f1fe8f9e-8034-3c5" sheetId="20" r:id="rId20"/>
+    <sheet name="10__60ca238e-8895-3b" sheetId="21" r:id="rId21"/>
+    <sheet name="11__60ca238e-8895-3b" sheetId="22" r:id="rId22"/>
+    <sheet name="12__60ca238e-8895-3b" sheetId="23" r:id="rId23"/>
+    <sheet name="13__170bd866-663f-33" sheetId="24" r:id="rId24"/>
+    <sheet name="13__61add208-6a47-33" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="478">
   <si>
     <t>Bank balances</t>
   </si>
@@ -659,6 +667,312 @@
     <t>12841</t>
   </si>
   <si>
+    <t>Trade payables due to related entities</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Landed cost clearing</t>
+  </si>
+  <si>
+    <t>147833</t>
+  </si>
+  <si>
+    <t>6758</t>
+  </si>
+  <si>
+    <t>11384</t>
+  </si>
+  <si>
+    <t>4143</t>
+  </si>
+  <si>
+    <t>170118</t>
+  </si>
+  <si>
+    <t>174266</t>
+  </si>
+  <si>
+    <t>15710</t>
+  </si>
+  <si>
+    <t>7399</t>
+  </si>
+  <si>
+    <t>3843</t>
+  </si>
+  <si>
+    <t>201218</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Bank borrowings</t>
+  </si>
+  <si>
+    <t>Non-current liabilities</t>
+  </si>
+  <si>
+    <t>Financing facilities</t>
+  </si>
+  <si>
+    <t>The Group has access to the debt facility as follows:</t>
+  </si>
+  <si>
+    <t>Uncommitted unsecured bank loans</t>
+  </si>
+  <si>
+    <t>131527</t>
+  </si>
+  <si>
+    <t>235000</t>
+  </si>
+  <si>
+    <t>1082147</t>
+  </si>
+  <si>
+    <t>89000</t>
+  </si>
+  <si>
+    <t>169000</t>
+  </si>
+  <si>
+    <t>1058845</t>
+  </si>
+  <si>
+    <t>Facilities utilised at reporting date</t>
+  </si>
+  <si>
+    <t>Unsecured bank loans</t>
+  </si>
+  <si>
+    <t>Facilities not utilised at reporting date</t>
+  </si>
+  <si>
+    <t>366527</t>
+  </si>
+  <si>
+    <t>715620</t>
+  </si>
+  <si>
+    <t>258000</t>
+  </si>
+  <si>
+    <t>800845</t>
+  </si>
+  <si>
+    <t>Long service leave provision</t>
+  </si>
+  <si>
+    <t>Annual leave provision</t>
+  </si>
+  <si>
+    <t>Non-Current</t>
+  </si>
+  <si>
+    <t>Long-service leave provision</t>
+  </si>
+  <si>
+    <t>2226</t>
+  </si>
+  <si>
+    <t>3518</t>
+  </si>
+  <si>
+    <t>5744</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Balance at1 January 2021</t>
+  </si>
+  <si>
+    <t>Provisions made during the year</t>
+  </si>
+  <si>
+    <t>Provisions used during the year</t>
+  </si>
+  <si>
+    <t>Foreign currency translation</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>31 December 2021</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>31 December 2022</t>
+  </si>
+  <si>
+    <t>Fringe benefit tax</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>(217)</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>(544)</t>
+  </si>
+  <si>
+    <t>Extended warranties</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>(764)</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>(800)</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>20882</t>
+  </si>
+  <si>
+    <t>68580</t>
+  </si>
+  <si>
+    <t>(60,278)</t>
+  </si>
+  <si>
+    <t>29196</t>
+  </si>
+  <si>
+    <t>64781</t>
+  </si>
+  <si>
+    <t>(64,441)</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>29514</t>
+  </si>
+  <si>
+    <t>22344</t>
+  </si>
+  <si>
+    <t>69985</t>
+  </si>
+  <si>
+    <t>(61,259)</t>
+  </si>
+  <si>
+    <t>31082</t>
+  </si>
+  <si>
+    <t>66311</t>
+  </si>
+  <si>
+    <t>(65,785)</t>
+  </si>
+  <si>
+    <t>(23)</t>
+  </si>
+  <si>
+    <t>31585</t>
+  </si>
+  <si>
+    <t>29792</t>
+  </si>
+  <si>
+    <t>29946</t>
+  </si>
+  <si>
+    <t>Final 2021 ordinary</t>
+  </si>
+  <si>
+    <t>Final 2020 ordinary</t>
+  </si>
+  <si>
+    <t>Cents per share</t>
+  </si>
+  <si>
+    <t>Total amount</t>
+  </si>
+  <si>
+    <t>Franked / unfranked</t>
+  </si>
+  <si>
+    <t>Date of payment</t>
+  </si>
+  <si>
+    <t>Issued and fully paid:</t>
+  </si>
+  <si>
+    <t>21,000,000 Ordinary shares</t>
+  </si>
+  <si>
+    <t>Ordinary shares</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>Dividend franking account</t>
+  </si>
+  <si>
+    <t>145238</t>
+  </si>
+  <si>
+    <t>122618</t>
+  </si>
+  <si>
     <t>Revenue is derived from the transfer of goods and services at the point in time, none has been derived over time.</t>
   </si>
   <si>
@@ -848,9 +1162,6 @@
     <t>387</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>484</t>
   </si>
   <si>
@@ -936,9 +1247,6 @@
   </si>
   <si>
     <t>2154</t>
-  </si>
-  <si>
-    <t>266</t>
   </si>
   <si>
     <t>4888</t>
@@ -1594,7 +1902,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,114 +1920,67 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>217</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="A4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>225</v>
-      </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>228</v>
-      </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1747,81 +2008,78 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>231</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>251</v>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +2089,399 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1849,8 +2499,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>251</v>
+      <c r="B2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1871,378 +2521,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
         <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2252,118 +2542,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2382,100 +2561,94 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2485,13 +2658,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2501,114 +2674,296 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
       <c r="C8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2760,6 +3115,793 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
@@ -3876,7 +5018,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3895,19 +5037,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -3925,13 +5058,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>211</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
-        <v>213</v>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +5115,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3959,14 +5133,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>214</v>
-      </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3974,42 +5145,116 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>217</v>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
